--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/12/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/12/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3163163163163163</v>
+        <v>0.9051905190519052</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.2782782782783</v>
+        <v>429.3029302930293</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05345345345345345</v>
+        <v>0.004470447044704471</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8628628628628628</v>
+        <v>0.943994399439944</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1557.557557557558</v>
+        <v>866.3466346634664</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>988.988988988989</v>
+        <v>682.2682268226822</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>264.2642642642643</v>
+        <v>309.3222322232223</v>
       </c>
     </row>
   </sheetData>
